--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
@@ -540,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H2">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.29677366666667</v>
+        <v>18.296032</v>
       </c>
       <c r="N2">
-        <v>63.890321</v>
+        <v>54.888096</v>
       </c>
       <c r="O2">
-        <v>0.1914528691768978</v>
+        <v>0.1408813274592244</v>
       </c>
       <c r="P2">
-        <v>0.1989176778204812</v>
+        <v>0.1447879988537689</v>
       </c>
       <c r="Q2">
-        <v>0.5223459677223333</v>
+        <v>0.632649342512</v>
       </c>
       <c r="R2">
-        <v>3.134075806334</v>
+        <v>3.795896055072</v>
       </c>
       <c r="S2">
-        <v>0.1914528691768978</v>
+        <v>0.1408813274592244</v>
       </c>
       <c r="T2">
-        <v>0.1989176778204812</v>
+        <v>0.1447879988537689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H3">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>83.66323399999999</v>
       </c>
       <c r="O3">
-        <v>0.2507041120347194</v>
+        <v>0.2147385011396954</v>
       </c>
       <c r="P3">
-        <v>0.2604791456006541</v>
+        <v>0.2206932488329456</v>
       </c>
       <c r="Q3">
-        <v>0.6840027134393333</v>
+        <v>0.9643163789563332</v>
       </c>
       <c r="R3">
-        <v>4.104016280635999</v>
+        <v>5.785898273737999</v>
       </c>
       <c r="S3">
-        <v>0.2507041120347194</v>
+        <v>0.2147385011396954</v>
       </c>
       <c r="T3">
-        <v>0.2604791456006541</v>
+        <v>0.2206932488329456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H4">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.94655366666667</v>
+        <v>32.05318933333334</v>
       </c>
       <c r="N4">
-        <v>71.83966100000001</v>
+        <v>96.15956800000001</v>
       </c>
       <c r="O4">
-        <v>0.2152737535806979</v>
+        <v>0.2468128533324521</v>
       </c>
       <c r="P4">
-        <v>0.2236673461310453</v>
+        <v>0.2536570301393388</v>
       </c>
       <c r="Q4">
-        <v>0.5873371217823334</v>
+        <v>1.108351207362667</v>
       </c>
       <c r="R4">
-        <v>3.524022730694</v>
+        <v>6.650107244176001</v>
       </c>
       <c r="S4">
-        <v>0.2152737535806979</v>
+        <v>0.2468128533324521</v>
       </c>
       <c r="T4">
-        <v>0.2236673461310453</v>
+        <v>0.2536570301393388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H5">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5232915</v>
+        <v>10.5123315</v>
       </c>
       <c r="N5">
-        <v>25.046583</v>
+        <v>21.024663</v>
       </c>
       <c r="O5">
-        <v>0.1125813762563655</v>
+        <v>0.08094603334818277</v>
       </c>
       <c r="P5">
-        <v>0.07798064009880215</v>
+        <v>0.05546045689660794</v>
       </c>
       <c r="Q5">
-        <v>0.3071587706205</v>
+        <v>0.36350065477275</v>
       </c>
       <c r="R5">
-        <v>1.228635082482</v>
+        <v>1.454002619091</v>
       </c>
       <c r="S5">
-        <v>0.1125813762563655</v>
+        <v>0.08094603334818277</v>
       </c>
       <c r="T5">
-        <v>0.07798064009880215</v>
+        <v>0.05546045689660794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H6">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.58332</v>
+        <v>41.11909833333333</v>
       </c>
       <c r="N6">
-        <v>76.74995999999999</v>
+        <v>123.357295</v>
       </c>
       <c r="O6">
-        <v>0.2299878889513192</v>
+        <v>0.3166212847204454</v>
       </c>
       <c r="P6">
-        <v>0.2389551903490173</v>
+        <v>0.3254012652773388</v>
       </c>
       <c r="Q6">
-        <v>0.62748208964</v>
+        <v>1.421836741719167</v>
       </c>
       <c r="R6">
-        <v>3.764892537839999</v>
+        <v>8.531020450314999</v>
       </c>
       <c r="S6">
-        <v>0.2299878889513192</v>
+        <v>0.3166212847204454</v>
       </c>
       <c r="T6">
-        <v>0.2389551903490173</v>
+        <v>0.3254012652773388</v>
       </c>
     </row>
   </sheetData>
